--- a/sydw/2020上/考点/1-法律法规.xlsx
+++ b/sydw/2020上/考点/1-法律法规.xlsx
@@ -4,18 +4,494 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="宪法" sheetId="1" r:id="rId1"/>
-    <sheet name="事业单位公开招聘人员暂行规定" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="宪法" sheetId="1" r:id="rId2"/>
+    <sheet name="事业单位公开招聘人员暂行规定" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="287">
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <r>
+      <t>1.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宪法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国旗法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国徽法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国籍法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>戒严法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立法法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缔结条约程序法</t>
+    </r>
+  </si>
+  <si>
+    <t>8.中华人民共和国专属经济区和大陆架法</t>
+  </si>
+  <si>
+    <t>9.外交部发布《对外使用国徽图案的办法》</t>
+  </si>
+  <si>
+    <r>
+      <t>10.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集会游行示威法</t>
+    </r>
+  </si>
+  <si>
+    <t>11.中华人民共和国领海及毗连区法</t>
+  </si>
+  <si>
+    <r>
+      <t>12.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引渡法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民族区域自治法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.中华人民共和国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工会法</t>
+    </r>
+  </si>
+  <si>
+    <t>15.中华人民共和国外交特权与豁免条例</t>
+  </si>
+  <si>
+    <t>16.中华人民共和国领事特权与豁免条例</t>
+  </si>
+  <si>
+    <t>17.第五届全国人民代表大会第五次会议关于中华人民共和国国歌的决议</t>
+  </si>
+  <si>
+    <t>18.国务院关于《中华人民共和国集会游行示威法实施条例》的批复通知</t>
+  </si>
+  <si>
+    <t>19.全国人民代表大会常务委员会关于修改《中华人民共和国民族区域自治法》的决定</t>
+  </si>
+  <si>
+    <t>20.全国人民代表大会常务委员会关于修改《中华人民共和国工会法》的决定</t>
+  </si>
+  <si>
+    <t>民商法</t>
+  </si>
+  <si>
+    <t>1.民法</t>
+  </si>
+  <si>
+    <t>2.所有权及相关财产权</t>
+  </si>
+  <si>
+    <t>3.知识产权</t>
+  </si>
+  <si>
+    <t>4.债权</t>
+  </si>
+  <si>
+    <t>5.婚姻家庭继承</t>
+  </si>
+  <si>
+    <t>6.市场经济主体</t>
+  </si>
+  <si>
+    <t>7.证券、期货、债券</t>
+  </si>
+  <si>
+    <t>8.海商</t>
+  </si>
+  <si>
+    <t>9.保险</t>
+  </si>
+  <si>
+    <t>10.票据</t>
+  </si>
+  <si>
+    <t>11.租赁</t>
+  </si>
+  <si>
+    <t>12.合同法</t>
+  </si>
+  <si>
+    <t>行政法</t>
+  </si>
+  <si>
+    <t>1.外交外事</t>
+  </si>
+  <si>
+    <t>2.民政</t>
+  </si>
+  <si>
+    <t>3.司法</t>
+  </si>
+  <si>
+    <t>4.公安</t>
+  </si>
+  <si>
+    <t>5.人事、公务员制度</t>
+  </si>
+  <si>
+    <t>6.纪检</t>
+  </si>
+  <si>
+    <t>7.监察</t>
+  </si>
+  <si>
+    <t>8.档案</t>
+  </si>
+  <si>
+    <t>9.民族事务</t>
+  </si>
+  <si>
+    <t>10.宗教</t>
+  </si>
+  <si>
+    <t>11.侨务</t>
+  </si>
+  <si>
+    <t>12.港澳事务</t>
+  </si>
+  <si>
+    <t>13.台湾事务</t>
+  </si>
+  <si>
+    <t>14.教育</t>
+  </si>
+  <si>
+    <t>15.科技</t>
+  </si>
+  <si>
+    <t>16.文化</t>
+  </si>
+  <si>
+    <t>17.新闻出版</t>
+  </si>
+  <si>
+    <t>18.广播电影电视</t>
+  </si>
+  <si>
+    <t>19.体育</t>
+  </si>
+  <si>
+    <t>20.医药卫生</t>
+  </si>
+  <si>
+    <t>21.人口与计划生育</t>
+  </si>
+  <si>
+    <t>22.城乡建设</t>
+  </si>
+  <si>
+    <t>23.环境保护</t>
+  </si>
+  <si>
+    <t>24.海关</t>
+  </si>
+  <si>
+    <t>25.旅游</t>
+  </si>
+  <si>
+    <t>26.气象</t>
+  </si>
+  <si>
+    <t>27.地震与地质灾害</t>
+  </si>
+  <si>
+    <t>28.测绘</t>
+  </si>
+  <si>
+    <t>刑法</t>
+  </si>
+  <si>
+    <t>1.刑法综合规定与解释</t>
+  </si>
+  <si>
+    <t>2.犯罪和刑事责任</t>
+  </si>
+  <si>
+    <t>3.刑罚</t>
+  </si>
+  <si>
+    <t>4.量刑</t>
+  </si>
+  <si>
+    <t>5.自首</t>
+  </si>
+  <si>
+    <t>6.数罪并罚</t>
+  </si>
+  <si>
+    <t>7.缓刑</t>
+  </si>
+  <si>
+    <t>8.减刑</t>
+  </si>
+  <si>
+    <t>9.假释</t>
+  </si>
+  <si>
+    <t>10.危害国家安全罪</t>
+  </si>
+  <si>
+    <t>11.危害公共安全罪</t>
+  </si>
+  <si>
+    <t>12.破坏社会主义市场经济秩序罪</t>
+  </si>
+  <si>
+    <t>13.侵犯公民人身权利、民主权利罪</t>
+  </si>
+  <si>
+    <t>14.侵犯财产罪</t>
+  </si>
+  <si>
+    <t>15.妨害社会管理秩序罪</t>
+  </si>
+  <si>
+    <t>16.妨害婚姻家庭罪</t>
+  </si>
+  <si>
+    <t>17.危害国防利益罪</t>
+  </si>
+  <si>
+    <t>18.贪污贿赂罪</t>
+  </si>
+  <si>
+    <t>19.渎职罪</t>
+  </si>
+  <si>
+    <t>20.军人违反职责罪</t>
+  </si>
+  <si>
+    <t>21.反革命罪（废）</t>
+  </si>
+  <si>
+    <t>经济法</t>
+  </si>
+  <si>
+    <t>1.经济体制改革与对外开放</t>
+  </si>
+  <si>
+    <t>2.计划、投资</t>
+  </si>
+  <si>
+    <t>3.财政</t>
+  </si>
+  <si>
+    <t>4.税收</t>
+  </si>
+  <si>
+    <t>5.金融</t>
+  </si>
+  <si>
+    <t>6.基本建设</t>
+  </si>
+  <si>
+    <t>7.标准化、计量</t>
+  </si>
+  <si>
+    <t>8.质量管理</t>
+  </si>
+  <si>
+    <t>9.统计</t>
+  </si>
+  <si>
+    <t>10.资源与资源利用</t>
+  </si>
+  <si>
+    <t>11.能源与能源工业</t>
+  </si>
+  <si>
+    <t>12.交通运输</t>
+  </si>
+  <si>
+    <t>13.邮政电讯</t>
+  </si>
+  <si>
+    <t>14.农牧业</t>
+  </si>
+  <si>
+    <t>15.工业</t>
+  </si>
+  <si>
+    <t>16.商贸物资仓储</t>
+  </si>
+  <si>
+    <t>17.工商管理</t>
+  </si>
+  <si>
+    <t>18.物价管理</t>
+  </si>
+  <si>
+    <t>19.市场中介机构</t>
+  </si>
+  <si>
+    <t>20.对外经济合作与三资企业</t>
+  </si>
+  <si>
+    <t>21.对外贸易</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>1.劳动</t>
+  </si>
+  <si>
+    <t>2.社会保障</t>
+  </si>
+  <si>
+    <t>诉讼</t>
+  </si>
+  <si>
+    <t>1.民事诉讼</t>
+  </si>
+  <si>
+    <t>2.刑事诉讼</t>
+  </si>
+  <si>
+    <t>3.行政诉讼</t>
+  </si>
+  <si>
+    <t>4.知识产权诉讼</t>
+  </si>
+  <si>
+    <t>5.海事诉讼</t>
+  </si>
+  <si>
+    <t>6.告诉申诉</t>
+  </si>
+  <si>
+    <t>7.仲裁</t>
+  </si>
   <si>
     <t>社会主义民主政治的本质和核心</t>
   </si>
@@ -530,11 +1006,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,16 +1019,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,14 +1121,45 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,15 +1174,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -606,88 +1182,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,7 +1202,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +1250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +1268,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +1358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,133 +1388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,6 +1509,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1014,17 +1547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,20 +1566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,26 +1596,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,10 +1612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,19 +1624,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,116 +1645,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1295,6 +1801,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1355,6 +1876,175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="中国法律体系"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="809625"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="法律体系研究"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4791075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="法律制度与体系"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="7515225"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="经济法"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="17364075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,13 +2305,744 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="115.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="16.5" spans="2:3">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="2:3">
+      <c r="B3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="2:3">
+      <c r="B4" s="19"/>
+      <c r="C4" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="2:3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="2:3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="2:3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="2:3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="2:3">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:3">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:3">
+      <c r="B22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:3">
+      <c r="B34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="2:3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:3">
+      <c r="B40" s="21"/>
+      <c r="C40" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="2:3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="2:3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="2:3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="2:3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="2:3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="2:3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="2:3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="2:3">
+      <c r="B48" s="21"/>
+      <c r="C48" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="2:3">
+      <c r="B49" s="21"/>
+      <c r="C49" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="2:3">
+      <c r="B50" s="21"/>
+      <c r="C50" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="2:3">
+      <c r="B51" s="21"/>
+      <c r="C51" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="2:3">
+      <c r="B52" s="21"/>
+      <c r="C52" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="2:3">
+      <c r="B53" s="21"/>
+      <c r="C53" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="2:3">
+      <c r="B54" s="21"/>
+      <c r="C54" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="2:3">
+      <c r="B55" s="21"/>
+      <c r="C55" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="2:3">
+      <c r="B56" s="21"/>
+      <c r="C56" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="2:3">
+      <c r="B57" s="21"/>
+      <c r="C57" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="2:3">
+      <c r="B58" s="21"/>
+      <c r="C58" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="2:3">
+      <c r="B59" s="21"/>
+      <c r="C59" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="2:3">
+      <c r="B60" s="21"/>
+      <c r="C60" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="2:3">
+      <c r="B61" s="21"/>
+      <c r="C61" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="2:3">
+      <c r="B62" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="2:3">
+      <c r="B63" s="21"/>
+      <c r="C63" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="2:3">
+      <c r="B64" s="21"/>
+      <c r="C64" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="2:3">
+      <c r="B65" s="21"/>
+      <c r="C65" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="2:3">
+      <c r="B66" s="21"/>
+      <c r="C66" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="2:3">
+      <c r="B67" s="21"/>
+      <c r="C67" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="2:3">
+      <c r="B68" s="21"/>
+      <c r="C68" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="2:3">
+      <c r="B69" s="21"/>
+      <c r="C69" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="2:3">
+      <c r="B70" s="21"/>
+      <c r="C70" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="2:3">
+      <c r="B71" s="21"/>
+      <c r="C71" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="2:3">
+      <c r="B72" s="21"/>
+      <c r="C72" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="2:3">
+      <c r="B73" s="21"/>
+      <c r="C73" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="2:3">
+      <c r="B74" s="21"/>
+      <c r="C74" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="2:3">
+      <c r="B75" s="21"/>
+      <c r="C75" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="2:3">
+      <c r="B76" s="21"/>
+      <c r="C76" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="2:3">
+      <c r="B77" s="21"/>
+      <c r="C77" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="2:3">
+      <c r="B78" s="21"/>
+      <c r="C78" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="2:3">
+      <c r="B79" s="21"/>
+      <c r="C79" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="2:3">
+      <c r="B80" s="21"/>
+      <c r="C80" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="2:3">
+      <c r="B81" s="21"/>
+      <c r="C81" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" spans="2:3">
+      <c r="B82" s="21"/>
+      <c r="C82" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" spans="2:3">
+      <c r="B83" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" ht="16.5" spans="2:3">
+      <c r="B84" s="21"/>
+      <c r="C84" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="2:3">
+      <c r="B85" s="21"/>
+      <c r="C85" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" ht="16.5" spans="2:3">
+      <c r="B86" s="21"/>
+      <c r="C86" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5" spans="2:3">
+      <c r="B87" s="21"/>
+      <c r="C87" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="2:3">
+      <c r="B88" s="21"/>
+      <c r="C88" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="2:3">
+      <c r="B89" s="21"/>
+      <c r="C89" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="2:3">
+      <c r="B90" s="21"/>
+      <c r="C90" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="2:3">
+      <c r="B91" s="21"/>
+      <c r="C91" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" ht="16.5" spans="2:3">
+      <c r="B92" s="21"/>
+      <c r="C92" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="2:3">
+      <c r="B93" s="21"/>
+      <c r="C93" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="2:3">
+      <c r="B94" s="21"/>
+      <c r="C94" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" ht="16.5" spans="2:3">
+      <c r="B95" s="21"/>
+      <c r="C95" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="2:3">
+      <c r="B96" s="21"/>
+      <c r="C96" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="2:3">
+      <c r="B97" s="21"/>
+      <c r="C97" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="2:3">
+      <c r="B98" s="21"/>
+      <c r="C98" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="2:3">
+      <c r="B99" s="21"/>
+      <c r="C99" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="2:3">
+      <c r="B100" s="21"/>
+      <c r="C100" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="16.5" spans="2:3">
+      <c r="B101" s="21"/>
+      <c r="C101" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="2:3">
+      <c r="B102" s="21"/>
+      <c r="C102" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="2:3">
+      <c r="B103" s="21"/>
+      <c r="C103" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5" spans="2:3">
+      <c r="B104" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" ht="16.5" spans="2:3">
+      <c r="B105" s="21"/>
+      <c r="C105" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" spans="2:3">
+      <c r="B106" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="2:3">
+      <c r="B107" s="21"/>
+      <c r="C107" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="2:3">
+      <c r="B108" s="21"/>
+      <c r="C108" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="2:3">
+      <c r="B109" s="21"/>
+      <c r="C109" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="2:3">
+      <c r="B110" s="21"/>
+      <c r="C110" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="2:3">
+      <c r="B111" s="21"/>
+      <c r="C111" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5" spans="2:3">
+      <c r="B112" s="21"/>
+      <c r="C112" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="B34:B61"/>
+    <mergeCell ref="B62:B82"/>
+    <mergeCell ref="B83:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B112"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId2" display="1.中华人民共和国宪法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%AA%E6%B3%95"/>
+    <hyperlink ref="C3" r:id="rId3" display="2.中华人民共和国国旗法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E6%97%97%E6%B3%95"/>
+    <hyperlink ref="C4" r:id="rId4" display="3.中华人民共和国国徽法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD%E6%B3%95"/>
+    <hyperlink ref="C5" r:id="rId5" display="4.中华人民共和国国籍法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E7%B1%8D%E6%B3%95"/>
+    <hyperlink ref="C6" r:id="rId6" display="5.中华人民共和国戒严法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%88%92%E4%B8%A5%E6%B3%95"/>
+    <hyperlink ref="C7" r:id="rId7" display="6.中华人民共和国立法法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%AB%8B%E6%B3%95%E6%B3%95"/>
+    <hyperlink ref="C8" r:id="rId8" display="7.中华人民共和国缔结条约程序法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BC%94%E7%BB%93%E6%9D%A1%E7%BA%A6%E7%A8%8B%E5%BA%8F%E6%B3%95"/>
+    <hyperlink ref="C9" r:id="rId9" display="8.中华人民共和国专属经济区和大陆架法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%93%E5%B1%9E%E7%BB%8F%E6%B5%8E%E5%8C%BA%E5%92%8C%E5%A4%A7%E9%99%86%E6%9E%B6%E6%B3%95"/>
+    <hyperlink ref="C10" r:id="rId10" display="9.外交部发布《对外使用国徽图案的办法》" tooltip="https://baike.baidu.com/item/%E5%AF%B9%E5%A4%96%E4%BD%BF%E7%94%A8%E5%9B%BD%E5%BE%BD%E5%9B%BE%E6%A1%88%E7%9A%84%E5%8A%9E%E6%B3%95"/>
+    <hyperlink ref="C11" r:id="rId11" display="10.中华人民共和国集会游行示威法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%9B%86%E4%BC%9A%E6%B8%B8%E8%A1%8C%E7%A4%BA%E5%A8%81%E6%B3%95"/>
+    <hyperlink ref="C12" r:id="rId12" display="11.中华人民共和国领海及毗连区法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%A2%86%E6%B5%B7%E5%8F%8A%E6%AF%97%E8%BF%9E%E5%8C%BA%E6%B3%95/4530983"/>
+    <hyperlink ref="C13" r:id="rId13" display="12.中华人民共和国引渡法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%BC%95%E6%B8%A1%E6%B3%95/7580444"/>
+    <hyperlink ref="C14" r:id="rId14" display="13.中华人民共和国民族区域自治法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%91%E6%97%8F%E5%8C%BA%E5%9F%9F%E8%87%AA%E6%B2%BB%E6%B3%95/524476"/>
+    <hyperlink ref="C15" r:id="rId15" display="14.中华人民共和国工会法" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%B7%A5%E4%BC%9A%E6%B3%95/396858"/>
+    <hyperlink ref="C16" r:id="rId16" display="15.中华人民共和国外交特权与豁免条例" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%A4%96%E4%BA%A4%E7%89%B9%E6%9D%83%E4%B8%8E%E8%B1%81%E5%85%8D%E6%9D%A1%E4%BE%8B/996794"/>
+    <hyperlink ref="C17" r:id="rId17" display="16.中华人民共和国领事特权与豁免条例" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%A2%86%E4%BA%8B%E7%89%B9%E6%9D%83%E4%B8%8E%E8%B1%81%E5%85%8D%E6%9D%A1%E4%BE%8B/7545331"/>
+    <hyperlink ref="C19" r:id="rId18" display="18.国务院关于《中华人民共和国集会游行示威法实施条例》的批复通知" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E9%9B%86%E4%BC%9A%E6%B8%B8%E8%A1%8C%E7%A4%BA%E5%A8%81%E6%B3%95%E5%AE%9E%E6%96%BD%E6%9D%A1%E4%BE%8B"/>
+    <hyperlink ref="C20" r:id="rId14" display="19.全国人民代表大会常务委员会关于修改《中华人民共和国民族区域自治法》的决定" tooltip="https://baike.baidu.com/item/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%91%E6%97%8F%E5%8C%BA%E5%9F%9F%E8%87%AA%E6%B2%BB%E6%B3%95/524476"/>
+    <hyperlink ref="C76" r:id="rId19" display="15.妨害社会管理秩序罪" tooltip="https://baike.baidu.com/item/%E7%A4%BE%E4%BC%9A%E7%AE%A1%E7%90%86%E7%A7%A9%E5%BA%8F"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
@@ -1636,19 +3057,19 @@
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1657,10 +3078,10 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1670,13 +3091,13 @@
     <row r="5" spans="2:7">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>1988</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1688,11 +3109,11 @@
         <v>1993</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1702,7 +3123,7 @@
         <v>1999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1714,11 +3135,11 @@
         <v>2004</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1728,43 +3149,43 @@
         <v>2018</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1774,7 +3195,7 @@
     <row r="13" spans="2:7">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1784,10 +3205,10 @@
     <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1796,27 +3217,27 @@
     <row r="15" spans="2:10">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1841,10 +3262,10 @@
     <row r="19" spans="2:7">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1854,10 +3275,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1867,7 +3288,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1877,7 +3298,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1886,10 +3307,10 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1899,7 +3320,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1909,11 +3330,11 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="10" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="3" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -1936,10 +3357,10 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1948,10 +3369,10 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1960,10 +3381,10 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1987,7 +3408,7 @@
     <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2013,10 +3434,10 @@
     <row r="36" spans="2:7">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2026,7 +3447,7 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2035,17 +3456,17 @@
     <row r="38" spans="2:7">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -2053,11 +3474,11 @@
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -2065,11 +3486,11 @@
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -2077,51 +3498,51 @@
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2131,7 +3552,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2140,10 +3561,10 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2152,14 +3573,14 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -2167,7 +3588,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2177,7 +3598,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2187,11 +3608,11 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -2199,35 +3620,35 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -2237,18 +3658,18 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2258,26 +3679,26 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -2285,7 +3706,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2295,7 +3716,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2305,21 +3726,21 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -2329,7 +3750,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -2339,7 +3760,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -2349,7 +3770,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2359,11 +3780,11 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -2371,11 +3792,11 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -2383,7 +3804,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -2391,22 +3812,22 @@
     <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="3" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2422,14 +3843,14 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="13" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2437,17 +3858,17 @@
     <row r="73" spans="2:7">
       <c r="B73" s="14"/>
       <c r="C73" s="15" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -2455,11 +3876,11 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="3" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -2467,11 +3888,11 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="3" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -2479,11 +3900,11 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="3" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -2491,7 +3912,7 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="3" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2501,11 +3922,11 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="3" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -2513,7 +3934,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="3" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -2523,7 +3944,7 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="3" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -2533,21 +3954,21 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="3" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="16" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="6" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -2555,13 +3976,13 @@
     <row r="83" spans="2:7">
       <c r="B83" s="15"/>
       <c r="C83" s="15" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -2571,7 +3992,7 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="3" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2581,7 +4002,7 @@
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="3" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -2591,7 +4012,7 @@
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="3" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -2601,7 +4022,7 @@
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="3" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -2611,7 +4032,7 @@
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="3" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -2621,7 +4042,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="3" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -2631,23 +4052,23 @@
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="3" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="16" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -2655,13 +4076,13 @@
     <row r="92" spans="2:7">
       <c r="B92" s="15"/>
       <c r="C92" s="15" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -2671,7 +4092,7 @@
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="3" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -2681,7 +4102,7 @@
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="3" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2691,11 +4112,11 @@
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="3" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:7">
@@ -2703,11 +4124,11 @@
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="3" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -2715,21 +4136,21 @@
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="3" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="16" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -2737,13 +4158,13 @@
     <row r="99" spans="2:7">
       <c r="B99" s="15"/>
       <c r="C99" s="15" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -2753,7 +4174,7 @@
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="3" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -2763,11 +4184,11 @@
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="3" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -2775,7 +4196,7 @@
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="3" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -2785,11 +4206,11 @@
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="3" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -2797,7 +4218,7 @@
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="3" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2807,11 +4228,11 @@
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="3" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D4"/>
@@ -2861,11 +4282,11 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/sydw/2020上/考点/1-法律法规.xlsx
+++ b/sydw/2020上/考点/1-法律法规.xlsx
@@ -4,24 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="宪法" sheetId="1" r:id="rId2"/>
     <sheet name="事业单位公开招聘人员暂行规定" sheetId="2" r:id="rId3"/>
+    <sheet name="监察" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
   <si>
     <t>宪法</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.中华人民共和国</t>
     </r>
     <r>
@@ -36,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.中华人民共和国</t>
     </r>
     <r>
@@ -50,6 +63,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>3.中华人民共和国</t>
     </r>
     <r>
@@ -64,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4.中华人民共和国</t>
     </r>
     <r>
@@ -78,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>5.中华人民共和国</t>
     </r>
     <r>
@@ -92,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>6.中华人民共和国</t>
     </r>
     <r>
@@ -106,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>7.中华人民共和国</t>
     </r>
     <r>
@@ -126,6 +169,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>10.中华人民共和国</t>
     </r>
     <r>
@@ -143,6 +192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>12.中华人民共和国</t>
     </r>
     <r>
@@ -157,6 +212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>13.中华人民共和国</t>
     </r>
     <r>
@@ -171,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>14.中华人民共和国</t>
     </r>
     <r>
@@ -999,6 +1066,153 @@
   <si>
     <t>坚持德才兼备的用人标准，贯彻公开，公平，竞争，择优的原则</t>
   </si>
+  <si>
+    <t>监察委员会</t>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
+  <si>
+    <t>监察机关</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>国家监察委员会</t>
+  </si>
+  <si>
+    <t>对全人大和全人常负责</t>
+  </si>
+  <si>
+    <t>国家监察委主任连续任职不超过2届</t>
+  </si>
+  <si>
+    <t>地方监察委员会</t>
+  </si>
+  <si>
+    <t>对地方权力机关和上一级监察委负责</t>
+  </si>
+  <si>
+    <t>省、市、县</t>
+  </si>
+  <si>
+    <t>与人大</t>
+  </si>
+  <si>
+    <t>人大人常监督监察委员会工作</t>
+  </si>
+  <si>
+    <t>人大选举本级监察委员会主任</t>
+  </si>
+  <si>
+    <t>人大根据监察主任提请，任免监察委员会副主任、委员</t>
+  </si>
+  <si>
+    <t>职权</t>
+  </si>
+  <si>
+    <t>监督、调查、处置</t>
+  </si>
+  <si>
+    <t>独立行使职权</t>
+  </si>
+  <si>
+    <t>与审判、检察、执法相互配合，相互制约</t>
+  </si>
+  <si>
+    <t>事实为根据，法律为准绳</t>
+  </si>
+  <si>
+    <t>适用法律平等，保障合法权益</t>
+  </si>
+  <si>
+    <t>权责对等，严格监督</t>
+  </si>
+  <si>
+    <t>惩教结合，宽严相济</t>
+  </si>
+  <si>
+    <t>管辖</t>
+  </si>
+  <si>
+    <t>一般管辖</t>
+  </si>
+  <si>
+    <t>上下级</t>
+  </si>
+  <si>
+    <t>上级可管辖下级事项，可将事项制定给下级</t>
+  </si>
+  <si>
+    <t>下级可以报请上级管辖，下级有争议找上级解决</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>是监察对象或者检举人的近亲属：证人</t>
+  </si>
+  <si>
+    <t>本人或者近亲属与监察事项有利害关系：其他</t>
+  </si>
+  <si>
+    <t>留置</t>
+  </si>
+  <si>
+    <t>适用条件</t>
+  </si>
+  <si>
+    <t>严重：需进一步调查：符合以下</t>
+  </si>
+  <si>
+    <t>重大、复杂</t>
+  </si>
+  <si>
+    <t>逃跑、自杀</t>
+  </si>
+  <si>
+    <t>串供、伪造、毁灭、隐匿证据</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>行贿、共同职务犯罪的人</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>集体研究决定，留置后一般24小时内通知</t>
+  </si>
+  <si>
+    <t>市县报上一级批准，省报上一级备案</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>一般3个月，最长6个月</t>
+  </si>
+  <si>
+    <t>折抵：折抵管制2日，折抵拘役/有期1日</t>
+  </si>
+  <si>
+    <t>处置</t>
+  </si>
+  <si>
+    <t>谈话提醒、政务处分、移送起诉、问责、监察建议</t>
+  </si>
+  <si>
+    <t>救济：复审(1个月申请，1个月决定)--复核(1个月申请，2个月决定)</t>
+  </si>
+  <si>
+    <t>监督</t>
+  </si>
+  <si>
+    <t>权利机关的监督、社会监督、自我监督</t>
+  </si>
 </sst>
 </file>
 
@@ -1006,9 +1220,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1037,77 +1251,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1127,6 +1275,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1134,8 +1305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,7 +1322,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,18 +1359,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,12 +1401,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1208,7 +1428,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,37 +1524,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,134 +1612,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1405,6 +1625,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1461,9 +1718,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1472,19 +1727,24 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1502,51 +1762,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,21 +1779,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1596,6 +1799,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1606,16 +1833,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,145 +1875,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1781,8 +2032,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1790,16 +2041,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1808,10 +2108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1907,7 +2204,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="809625"/>
+          <a:off x="1371600" y="806450"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1948,7 +2245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="4791075"/>
+          <a:off x="1371600" y="4787900"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1989,7 +2286,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7515225"/>
+          <a:off x="1371600" y="7512050"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2030,7 +2327,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="17364075"/>
+          <a:off x="1371600" y="17360900"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2307,692 +2604,692 @@
   <sheetPr/>
   <dimension ref="B2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="115.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="2:3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="2:3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="2:3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="2:3">
-      <c r="B44" s="21"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="2:3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:3">
-      <c r="B49" s="21"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="18" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:3">
-      <c r="B52" s="21"/>
-      <c r="C52" s="18" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="2:3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="18" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="2:3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="18" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="2:3">
-      <c r="B55" s="21"/>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:3">
-      <c r="B56" s="21"/>
-      <c r="C56" s="18" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="2:3">
-      <c r="B57" s="21"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="2:3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="2:3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="2:3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="37"/>
+      <c r="C60" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="2:3">
-      <c r="B61" s="21"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="2:3">
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="2:3">
-      <c r="B64" s="21"/>
-      <c r="C64" s="18" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:3">
-      <c r="B65" s="21"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:3">
-      <c r="B66" s="21"/>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="37"/>
+      <c r="C66" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:3">
-      <c r="B67" s="21"/>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:3">
-      <c r="B68" s="21"/>
-      <c r="C68" s="18" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:3">
-      <c r="B69" s="21"/>
-      <c r="C69" s="18" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:3">
-      <c r="B70" s="21"/>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:3">
-      <c r="B71" s="21"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:3">
-      <c r="B72" s="21"/>
-      <c r="C72" s="18" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:3">
-      <c r="B73" s="21"/>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:3">
-      <c r="B74" s="21"/>
-      <c r="C74" s="18" t="s">
+      <c r="B74" s="37"/>
+      <c r="C74" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="2:3">
-      <c r="B75" s="21"/>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="37"/>
+      <c r="C75" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="2:3">
-      <c r="B76" s="21"/>
-      <c r="C76" s="18" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="2:3">
-      <c r="B77" s="21"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="37"/>
+      <c r="C77" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="2:3">
-      <c r="B78" s="21"/>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="37"/>
+      <c r="C78" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="2:3">
-      <c r="B79" s="21"/>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="37"/>
+      <c r="C79" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="2:3">
-      <c r="B80" s="21"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="37"/>
+      <c r="C80" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="2:3">
-      <c r="B81" s="21"/>
-      <c r="C81" s="18" t="s">
+      <c r="B81" s="37"/>
+      <c r="C81" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="2:3">
-      <c r="B82" s="21"/>
-      <c r="C82" s="18" t="s">
+      <c r="B82" s="37"/>
+      <c r="C82" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="2:3">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="2:3">
-      <c r="B84" s="21"/>
-      <c r="C84" s="20" t="s">
+      <c r="B84" s="37"/>
+      <c r="C84" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="2:3">
-      <c r="B85" s="21"/>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="37"/>
+      <c r="C85" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="2:3">
-      <c r="B86" s="21"/>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="37"/>
+      <c r="C86" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="2:3">
-      <c r="B87" s="21"/>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="37"/>
+      <c r="C87" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="2:3">
-      <c r="B88" s="21"/>
-      <c r="C88" s="18" t="s">
+      <c r="B88" s="37"/>
+      <c r="C88" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="2:3">
-      <c r="B89" s="21"/>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="2:3">
-      <c r="B90" s="21"/>
-      <c r="C90" s="18" t="s">
+      <c r="B90" s="37"/>
+      <c r="C90" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="2:3">
-      <c r="B91" s="21"/>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="37"/>
+      <c r="C91" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="2:3">
-      <c r="B92" s="21"/>
-      <c r="C92" s="18" t="s">
+      <c r="B92" s="37"/>
+      <c r="C92" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="2:3">
-      <c r="B93" s="21"/>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="37"/>
+      <c r="C93" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="2:3">
-      <c r="B94" s="21"/>
-      <c r="C94" s="18" t="s">
+      <c r="B94" s="37"/>
+      <c r="C94" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="2:3">
-      <c r="B95" s="21"/>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="37"/>
+      <c r="C95" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="2:3">
-      <c r="B96" s="21"/>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="37"/>
+      <c r="C96" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="2:3">
-      <c r="B97" s="21"/>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="37"/>
+      <c r="C97" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="2:3">
-      <c r="B98" s="21"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="37"/>
+      <c r="C98" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="2:3">
-      <c r="B99" s="21"/>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="37"/>
+      <c r="C99" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="2:3">
-      <c r="B100" s="21"/>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="37"/>
+      <c r="C100" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="2:3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="37"/>
+      <c r="C101" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="2:3">
-      <c r="B102" s="21"/>
-      <c r="C102" s="18" t="s">
+      <c r="B102" s="37"/>
+      <c r="C102" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="2:3">
-      <c r="B103" s="21"/>
-      <c r="C103" s="18" t="s">
+      <c r="B103" s="37"/>
+      <c r="C103" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="2:3">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="2:3">
-      <c r="B105" s="21"/>
-      <c r="C105" s="18" t="s">
+      <c r="B105" s="37"/>
+      <c r="C105" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="2:3">
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="2:3">
-      <c r="B107" s="21"/>
-      <c r="C107" s="18" t="s">
+      <c r="B107" s="37"/>
+      <c r="C107" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="2:3">
-      <c r="B108" s="21"/>
-      <c r="C108" s="18" t="s">
+      <c r="B108" s="37"/>
+      <c r="C108" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="2:3">
-      <c r="B109" s="21"/>
-      <c r="C109" s="18" t="s">
+      <c r="B109" s="37"/>
+      <c r="C109" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="2:3">
-      <c r="B110" s="21"/>
-      <c r="C110" s="18" t="s">
+      <c r="B110" s="37"/>
+      <c r="C110" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="2:3">
-      <c r="B111" s="21"/>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="37"/>
+      <c r="C111" s="35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="2:3">
-      <c r="B112" s="21"/>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="37"/>
+      <c r="C112" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3038,1200 +3335,1200 @@
   <sheetPr/>
   <dimension ref="B1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B94" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.66666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58.5833333333333" style="2" customWidth="1"/>
-    <col min="8" max="12" width="9" style="2"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="14" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="19" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="4.66666666666667" style="19" customWidth="1"/>
+    <col min="7" max="7" width="58.5833333333333" style="19" customWidth="1"/>
+    <col min="8" max="12" width="9" style="19"/>
+    <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="20">
         <v>1988</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <v>1993</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>1999</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <v>2004</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
         <v>2018</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="E10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="3" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="3" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="20"/>
+      <c r="G43" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="20"/>
+      <c r="G47" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="20"/>
+      <c r="G65" s="20" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="3"/>
-      <c r="C68" s="4" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="3"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="3" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="21"/>
+      <c r="E72" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="14"/>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
+      <c r="F73" s="20"/>
+      <c r="G73" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="3" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3" t="s">
+      <c r="F74" s="20"/>
+      <c r="G74" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="3" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3" t="s">
+      <c r="F75" s="20"/>
+      <c r="G75" s="20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="3" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="20"/>
+      <c r="G76" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="3" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="3" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
+      <c r="F78" s="20"/>
+      <c r="G78" s="20" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="3" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="3" t="s">
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="16"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="3" t="s">
+      <c r="B81" s="33"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="6" t="s">
+      <c r="D82" s="33"/>
+      <c r="E82" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="15"/>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="3" t="s">
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="3" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="3" t="s">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="3" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="3" t="s">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="3" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
+      <c r="F90" s="20"/>
+      <c r="G90" s="20" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6" t="s">
+      <c r="D91" s="23"/>
+      <c r="E91" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="32"/>
+      <c r="C92" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="3" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="3" t="s">
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="3" t="s">
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
+      <c r="F95" s="20"/>
+      <c r="G95" s="20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="3" t="s">
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="3" t="s">
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6" t="s">
+      <c r="D98" s="23"/>
+      <c r="E98" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="15"/>
-      <c r="C99" s="15" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="3" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="3" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
+      <c r="F101" s="20"/>
+      <c r="G101" s="20" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="3" t="s">
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="3" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="20"/>
+      <c r="G103" s="20" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="3" t="s">
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="3" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
+      <c r="F105" s="20"/>
+      <c r="G105" s="20" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4282,7 +4579,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
@@ -4293,4 +4590,522 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A1:A32"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="D21:F24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sydw/2020上/考点/1-法律法规.xlsx
+++ b/sydw/2020上/考点/1-法律法规.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="3"/>
+    <workbookView windowWidth="11440" windowHeight="6980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
   <si>
     <t>宪法</t>
   </si>
@@ -1064,6 +1064,12 @@
     <t>省级：省、自治区、直辖市</t>
   </si>
   <si>
+    <t>法制入宪</t>
+  </si>
+  <si>
+    <t>法治</t>
+  </si>
+  <si>
     <t>坚持德才兼备的用人标准，贯彻公开，公平，竞争，择优的原则</t>
   </si>
   <si>
@@ -1219,10 +1225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1252,7 +1258,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1261,23 +1267,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,6 +1316,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1298,10 +1346,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1313,8 +1370,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,90 +1402,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1434,7 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1470,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,13 +1584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,103 +1596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,19 +1608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1764,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,6 +1785,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1799,36 +1814,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1857,16 +1846,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1875,145 +1875,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2032,9 +2029,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2047,59 +2041,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2108,7 +2071,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2614,682 +2577,682 @@
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="2:3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="2:3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="35" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="37"/>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="35" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="35" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="2:3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="2:3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="2:3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="35" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="35" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="35" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="35" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="2:3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="35" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="2:3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="2:3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="35" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="35" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="2:3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="2:3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="35" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="2:3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="35" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="2:3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="35" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="2:3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="35" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="2:3">
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="35" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="2:3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="35" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="35" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:3">
-      <c r="B66" s="37"/>
-      <c r="C66" s="35" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="35" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="35" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:3">
-      <c r="B69" s="37"/>
-      <c r="C69" s="35" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:3">
-      <c r="B70" s="37"/>
-      <c r="C70" s="35" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:3">
-      <c r="B71" s="37"/>
-      <c r="C71" s="35" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:3">
-      <c r="B72" s="37"/>
-      <c r="C72" s="35" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:3">
-      <c r="B73" s="37"/>
-      <c r="C73" s="35" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:3">
-      <c r="B74" s="37"/>
-      <c r="C74" s="35" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="2:3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="35" t="s">
+      <c r="B75" s="24"/>
+      <c r="C75" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="2:3">
-      <c r="B76" s="37"/>
-      <c r="C76" s="35" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="2:3">
-      <c r="B77" s="37"/>
-      <c r="C77" s="35" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="2:3">
-      <c r="B78" s="37"/>
-      <c r="C78" s="35" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="2:3">
-      <c r="B79" s="37"/>
-      <c r="C79" s="35" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="2:3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="35" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="2:3">
-      <c r="B81" s="37"/>
-      <c r="C81" s="35" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="2:3">
-      <c r="B82" s="37"/>
-      <c r="C82" s="35" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="2:3">
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="2:3">
-      <c r="B84" s="37"/>
-      <c r="C84" s="36" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="2:3">
-      <c r="B85" s="37"/>
-      <c r="C85" s="35" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="2:3">
-      <c r="B86" s="37"/>
-      <c r="C86" s="35" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="2:3">
-      <c r="B87" s="37"/>
-      <c r="C87" s="35" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="2:3">
-      <c r="B88" s="37"/>
-      <c r="C88" s="35" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="2:3">
-      <c r="B89" s="37"/>
-      <c r="C89" s="35" t="s">
+      <c r="B89" s="24"/>
+      <c r="C89" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="2:3">
-      <c r="B90" s="37"/>
-      <c r="C90" s="35" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="2:3">
-      <c r="B91" s="37"/>
-      <c r="C91" s="35" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="2:3">
-      <c r="B92" s="37"/>
-      <c r="C92" s="35" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="2:3">
-      <c r="B93" s="37"/>
-      <c r="C93" s="35" t="s">
+      <c r="B93" s="24"/>
+      <c r="C93" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="2:3">
-      <c r="B94" s="37"/>
-      <c r="C94" s="35" t="s">
+      <c r="B94" s="24"/>
+      <c r="C94" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="2:3">
-      <c r="B95" s="37"/>
-      <c r="C95" s="35" t="s">
+      <c r="B95" s="24"/>
+      <c r="C95" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="2:3">
-      <c r="B96" s="37"/>
-      <c r="C96" s="35" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="2:3">
-      <c r="B97" s="37"/>
-      <c r="C97" s="35" t="s">
+      <c r="B97" s="24"/>
+      <c r="C97" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="2:3">
-      <c r="B98" s="37"/>
-      <c r="C98" s="35" t="s">
+      <c r="B98" s="24"/>
+      <c r="C98" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="2:3">
-      <c r="B99" s="37"/>
-      <c r="C99" s="35" t="s">
+      <c r="B99" s="24"/>
+      <c r="C99" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="2:3">
-      <c r="B100" s="37"/>
-      <c r="C100" s="35" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="2:3">
-      <c r="B101" s="37"/>
-      <c r="C101" s="35" t="s">
+      <c r="B101" s="24"/>
+      <c r="C101" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="2:3">
-      <c r="B102" s="37"/>
-      <c r="C102" s="35" t="s">
+      <c r="B102" s="24"/>
+      <c r="C102" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="2:3">
-      <c r="B103" s="37"/>
-      <c r="C103" s="35" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="2:3">
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="2:3">
-      <c r="B105" s="37"/>
-      <c r="C105" s="35" t="s">
+      <c r="B105" s="24"/>
+      <c r="C105" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="2:3">
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="2:3">
-      <c r="B107" s="37"/>
-      <c r="C107" s="35" t="s">
+      <c r="B107" s="24"/>
+      <c r="C107" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="2:3">
-      <c r="B108" s="37"/>
-      <c r="C108" s="35" t="s">
+      <c r="B108" s="24"/>
+      <c r="C108" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="2:3">
-      <c r="B109" s="37"/>
-      <c r="C109" s="35" t="s">
+      <c r="B109" s="24"/>
+      <c r="C109" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="2:3">
-      <c r="B110" s="37"/>
-      <c r="C110" s="35" t="s">
+      <c r="B110" s="24"/>
+      <c r="C110" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="2:3">
-      <c r="B111" s="37"/>
-      <c r="C111" s="35" t="s">
+      <c r="B111" s="24"/>
+      <c r="C111" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="2:3">
-      <c r="B112" s="37"/>
-      <c r="C112" s="35" t="s">
+      <c r="B112" s="24"/>
+      <c r="C112" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3333,1203 +3296,1219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:J105"/>
+  <dimension ref="B1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="14" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="19" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="4.66666666666667" style="19" customWidth="1"/>
-    <col min="7" max="7" width="58.5833333333333" style="19" customWidth="1"/>
-    <col min="8" max="12" width="9" style="19"/>
-    <col min="13" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="15" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="4.66666666666667" style="15" customWidth="1"/>
+    <col min="7" max="7" width="58.5833333333333" style="15" customWidth="1"/>
+    <col min="8" max="12" width="9" style="15"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="2">
         <v>1988</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>1993</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>1999</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>2004</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>2018</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="E10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="G11" s="20" t="s">
+      <c r="E11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="20" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="20" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="20" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20" t="s">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20" t="s">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20" t="s">
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="20"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="20" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="31"/>
-      <c r="C73" s="32" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20" t="s">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="20" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20" t="s">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="20" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20" t="s">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="20" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20" t="s">
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="20" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="20" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20" t="s">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="20" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="31"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="20" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="33"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="20" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="33"/>
-      <c r="E82" s="23" t="s">
+      <c r="D82" s="20"/>
+      <c r="E82" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="32"/>
-      <c r="C83" s="32" t="s">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="20" t="s">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="20" t="s">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="20" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="20" t="s">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="20" t="s">
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="20" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="20" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20" t="s">
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23" t="s">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="32"/>
-      <c r="C92" s="32" t="s">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="20" t="s">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="20" t="s">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="20" t="s">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20" t="s">
+      <c r="F95" s="2"/>
+      <c r="G95" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="20" t="s">
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20" t="s">
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="20" t="s">
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23" t="s">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="32"/>
-      <c r="C99" s="32" t="s">
+      <c r="B99" s="19"/>
+      <c r="C99" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="20" t="s">
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="20" t="s">
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20" t="s">
+      <c r="F101" s="2"/>
+      <c r="G101" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="20" t="s">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="20" t="s">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20" t="s">
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="20" t="s">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="20" t="s">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20" t="s">
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" s="15">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="15">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4562,7 @@
   <sheetData>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +4576,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4608,65 +4587,65 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2"/>
@@ -4674,236 +4653,236 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>297</v>
+      <c r="B6" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14"/>
+        <v>303</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="C13" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="14"/>
+        <v>311</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="13"/>
+        <v>313</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="13"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
-      <c r="B19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="16"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2"/>
@@ -4912,11 +4891,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2"/>
@@ -4925,11 +4904,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2"/>
@@ -4938,123 +4917,123 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="D25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
+        <v>327</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
+        <v>330</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/sydw/2020上/考点/1-法律法规.xlsx
+++ b/sydw/2020上/考点/1-法律法规.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11440" windowHeight="6980" activeTab="1"/>
+    <workbookView windowWidth="20685" windowHeight="11190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="宪法" sheetId="1" r:id="rId2"/>
     <sheet name="事业单位公开招聘人员暂行规定" sheetId="2" r:id="rId3"/>
     <sheet name="监察" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="450">
   <si>
     <t>宪法</t>
   </si>
@@ -1219,16 +1220,352 @@
   <si>
     <t>权利机关的监督、社会监督、自我监督</t>
   </si>
+  <si>
+    <t>一、民法概述</t>
+  </si>
+  <si>
+    <t>调整对象</t>
+  </si>
+  <si>
+    <t>平等主体之间的财产关系和人身关系</t>
+  </si>
+  <si>
+    <t>基本原则</t>
+  </si>
+  <si>
+    <t>平等原则</t>
+  </si>
+  <si>
+    <t>自愿原则</t>
+  </si>
+  <si>
+    <t>公平原则</t>
+  </si>
+  <si>
+    <t>诚实信用原则</t>
+  </si>
+  <si>
+    <t>守法和公序良俗原则</t>
+  </si>
+  <si>
+    <t>节约资源保护生态环境原则</t>
+  </si>
+  <si>
+    <t>民事法律关系</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>自然人、法人、其他组织、国家(特殊情况)</t>
+  </si>
+  <si>
+    <t>客气</t>
+  </si>
+  <si>
+    <t>物、行为、智力成果、人身利益</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>民事权利与民事义务</t>
+  </si>
+  <si>
+    <t>二、民事主体</t>
+  </si>
+  <si>
+    <t>自然人</t>
+  </si>
+  <si>
+    <t>民事权利能力</t>
+  </si>
+  <si>
+    <t>自然人依法享有民事权利和承担民事义务的资格</t>
+  </si>
+  <si>
+    <t>起止时间</t>
+  </si>
+  <si>
+    <t>始于出生、止于死亡</t>
+  </si>
+  <si>
+    <t>【出生证明、死亡证明】&gt;【户籍/省份证，登记、注销时间】&gt;【其他证据】</t>
+  </si>
+  <si>
+    <t>胎儿</t>
+  </si>
+  <si>
+    <t>出生前</t>
+  </si>
+  <si>
+    <t>保留一份遗产</t>
+  </si>
+  <si>
+    <t>出生为死体</t>
+  </si>
+  <si>
+    <t>不考虑继承</t>
+  </si>
+  <si>
+    <t>出生为活体</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>民事行为能力</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>无民事行为能力</t>
+  </si>
+  <si>
+    <t>人群</t>
+  </si>
+  <si>
+    <t>未成年人</t>
+  </si>
+  <si>
+    <t>0&lt;x&lt;8</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
+    <t>不能辨认自己行为的人</t>
+  </si>
+  <si>
+    <t>疯子</t>
+  </si>
+  <si>
+    <t>法律效果</t>
+  </si>
+  <si>
+    <t>独立</t>
+  </si>
+  <si>
+    <t>独立做事无效</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>由其法定代理人代理实施民事法律行为。否则无效</t>
+  </si>
+  <si>
+    <t>限制民事行为力能</t>
+  </si>
+  <si>
+    <t>8&lt;=x&lt;18</t>
+  </si>
+  <si>
+    <t>不能完全辨认自己行为的人</t>
+  </si>
+  <si>
+    <t>纯获益或与其智力相适应的行为</t>
+  </si>
+  <si>
+    <t>完全民事行为能力</t>
+  </si>
+  <si>
+    <t>16&lt;=x&lt;18独立生活能理</t>
+  </si>
+  <si>
+    <t>精神正常</t>
+  </si>
+  <si>
+    <t>监护</t>
+  </si>
+  <si>
+    <t>法定监护(未成年人)</t>
+  </si>
+  <si>
+    <t>兄姐(没有弟妹)</t>
+  </si>
+  <si>
+    <t>法定监护(成年精神病)</t>
+  </si>
+  <si>
+    <t>配偶是第一顺序人</t>
+  </si>
+  <si>
+    <t>指定监护</t>
+  </si>
+  <si>
+    <t>遗嘱监护</t>
+  </si>
+  <si>
+    <t>意定监护</t>
+  </si>
+  <si>
+    <t>紧急情况下的零时监护</t>
+  </si>
+  <si>
+    <t>监护人职责</t>
+  </si>
+  <si>
+    <t>代理被监护人进行民事活动</t>
+  </si>
+  <si>
+    <t>保护被监护人的合法权益</t>
+  </si>
+  <si>
+    <t>只能保护，不能处理财产</t>
+  </si>
+  <si>
+    <t>承担被监护人致人损害的侵权责任</t>
+  </si>
+  <si>
+    <t>监护人若违反2、3，给被监护人造成损失，负赔偿责任</t>
+  </si>
+  <si>
+    <t>撤销资格</t>
+  </si>
+  <si>
+    <t>严重损害被监护人身心健康</t>
+  </si>
+  <si>
+    <t>怠于履行监护职责、或无法履行职责也不让出的，导致被监护人处于危困状态</t>
+  </si>
+  <si>
+    <t>严重侵害被监护人合法权益</t>
+  </si>
+  <si>
+    <t>宣告失踪</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>下落不明满2年，公告3个月</t>
+  </si>
+  <si>
+    <t>法院宣判</t>
+  </si>
+  <si>
+    <t>由最后所在居住地基层法院管辖</t>
+  </si>
+  <si>
+    <t>设立财产代管人，进行交税、还债、要债</t>
+  </si>
+  <si>
+    <t>重新出现</t>
+  </si>
+  <si>
+    <t>代管人返还财产并报告财产代管情况</t>
+  </si>
+  <si>
+    <t>撤销失踪</t>
+  </si>
+  <si>
+    <t>主动到法院申请</t>
+  </si>
+  <si>
+    <t>宣告死亡</t>
+  </si>
+  <si>
+    <t>满4年</t>
+  </si>
+  <si>
+    <t>意外事件满2年</t>
+  </si>
+  <si>
+    <t>有机关证明0年</t>
+  </si>
+  <si>
+    <t>死亡日期</t>
+  </si>
+  <si>
+    <t>宣告死亡的判决日；意外事件发生日</t>
+  </si>
+  <si>
+    <t>婚姻关系</t>
+  </si>
+  <si>
+    <t>消灭</t>
+  </si>
+  <si>
+    <t>财产关系</t>
+  </si>
+  <si>
+    <t>按遗产处理，按继承办理</t>
+  </si>
+  <si>
+    <t>婚姻关系自行恢复，但已再婚和不愿续婚除外</t>
+  </si>
+  <si>
+    <t>子女关系，需收养人同意</t>
+  </si>
+  <si>
+    <t>财产关系，有权要求返还，无法返还应当给予适当补偿</t>
+  </si>
+  <si>
+    <t>法人的民事权利能力和民事行为能力，从法人成立时产生，到法人终止时消灭</t>
+  </si>
+  <si>
+    <t>法人</t>
+  </si>
+  <si>
+    <t>个人独资企业</t>
+  </si>
+  <si>
+    <t>非法人组织</t>
+  </si>
+  <si>
+    <t>合伙企业</t>
+  </si>
+  <si>
+    <t>。（不按出资比例）</t>
+  </si>
+  <si>
+    <t>不具有法人资格的专业服务机构</t>
+  </si>
+  <si>
+    <t>三、民事法律行为</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>人格权</t>
+  </si>
+  <si>
+    <t>四、民事权利</t>
+  </si>
+  <si>
+    <t>物权</t>
+  </si>
+  <si>
+    <t>债权</t>
+  </si>
+  <si>
+    <t>知识产权</t>
+  </si>
+  <si>
+    <t>继承权</t>
+  </si>
+  <si>
+    <t>五、民事责任</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1257,6 +1594,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1265,9 +1647,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,29 +1676,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,53 +1709,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,25 +1731,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,7 +1765,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,37 +1885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,91 +1921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,31 +1939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,24 +2099,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1823,16 +2171,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1846,167 +2194,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2167,7 +2526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="806450"/>
+          <a:off x="1371600" y="809625"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2208,7 +2567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="4787900"/>
+          <a:off x="1371600" y="4791075"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2249,7 +2608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7512050"/>
+          <a:off x="1371600" y="7515225"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2290,7 +2649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="17360900"/>
+          <a:off x="1371600" y="17364075"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2571,688 +2930,688 @@
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="115.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="2:3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="2:3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="2:3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="2:3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="2:3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="2:3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="2:3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="2:3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="30" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="2:3">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:3">
-      <c r="B38" s="24"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="2:3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="22" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="2:3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="22" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="2:3">
-      <c r="B43" s="24"/>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="2:3">
-      <c r="B44" s="24"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="2:3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:3">
-      <c r="B47" s="24"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:3">
-      <c r="B48" s="24"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:3">
-      <c r="B49" s="24"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:3">
-      <c r="B50" s="24"/>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:3">
-      <c r="B51" s="24"/>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:3">
-      <c r="B52" s="24"/>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="2:3">
-      <c r="B53" s="24"/>
-      <c r="C53" s="22" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="30" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="2:3">
-      <c r="B54" s="24"/>
-      <c r="C54" s="22" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="2:3">
-      <c r="B55" s="24"/>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="22" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="2:3">
-      <c r="B57" s="24"/>
-      <c r="C57" s="22" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="2:3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="2:3">
-      <c r="B59" s="24"/>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" ht="16.5" spans="2:3">
-      <c r="B60" s="24"/>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" ht="16.5" spans="2:3">
-      <c r="B61" s="24"/>
-      <c r="C61" s="22" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" ht="16.5" spans="2:3">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:3">
-      <c r="B63" s="24"/>
-      <c r="C63" s="22" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" ht="16.5" spans="2:3">
-      <c r="B64" s="24"/>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" ht="16.5" spans="2:3">
-      <c r="B65" s="24"/>
-      <c r="C65" s="22" t="s">
+      <c r="B65" s="32"/>
+      <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" ht="16.5" spans="2:3">
-      <c r="B66" s="24"/>
-      <c r="C66" s="22" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" ht="16.5" spans="2:3">
-      <c r="B67" s="24"/>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="32"/>
+      <c r="C67" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" ht="16.5" spans="2:3">
-      <c r="B68" s="24"/>
-      <c r="C68" s="22" t="s">
+      <c r="B68" s="32"/>
+      <c r="C68" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" ht="16.5" spans="2:3">
-      <c r="B69" s="24"/>
-      <c r="C69" s="22" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" ht="16.5" spans="2:3">
-      <c r="B70" s="24"/>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="32"/>
+      <c r="C70" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" ht="16.5" spans="2:3">
-      <c r="B71" s="24"/>
-      <c r="C71" s="22" t="s">
+      <c r="B71" s="32"/>
+      <c r="C71" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" ht="16.5" spans="2:3">
-      <c r="B72" s="24"/>
-      <c r="C72" s="22" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" ht="16.5" spans="2:3">
-      <c r="B73" s="24"/>
-      <c r="C73" s="22" t="s">
+      <c r="B73" s="32"/>
+      <c r="C73" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" ht="16.5" spans="2:3">
-      <c r="B74" s="24"/>
-      <c r="C74" s="22" t="s">
+      <c r="B74" s="32"/>
+      <c r="C74" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" ht="16.5" spans="2:3">
-      <c r="B75" s="24"/>
-      <c r="C75" s="22" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" ht="16.5" spans="2:3">
-      <c r="B76" s="24"/>
-      <c r="C76" s="22" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" ht="16.5" spans="2:3">
-      <c r="B77" s="24"/>
-      <c r="C77" s="22" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" ht="16.5" spans="2:3">
-      <c r="B78" s="24"/>
-      <c r="C78" s="22" t="s">
+      <c r="B78" s="32"/>
+      <c r="C78" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" ht="16.5" spans="2:3">
-      <c r="B79" s="24"/>
-      <c r="C79" s="22" t="s">
+      <c r="B79" s="32"/>
+      <c r="C79" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" ht="16.5" spans="2:3">
-      <c r="B80" s="24"/>
-      <c r="C80" s="22" t="s">
+      <c r="B80" s="32"/>
+      <c r="C80" s="30" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" ht="16.5" spans="2:3">
-      <c r="B81" s="24"/>
-      <c r="C81" s="22" t="s">
+      <c r="B81" s="32"/>
+      <c r="C81" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" ht="16.5" spans="2:3">
-      <c r="B82" s="24"/>
-      <c r="C82" s="22" t="s">
+      <c r="B82" s="32"/>
+      <c r="C82" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="2:3">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="30" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="2:3">
-      <c r="B84" s="24"/>
-      <c r="C84" s="23" t="s">
+      <c r="B84" s="32"/>
+      <c r="C84" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="2:3">
-      <c r="B85" s="24"/>
-      <c r="C85" s="22" t="s">
+      <c r="B85" s="32"/>
+      <c r="C85" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="2:3">
-      <c r="B86" s="24"/>
-      <c r="C86" s="22" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="2:3">
-      <c r="B87" s="24"/>
-      <c r="C87" s="22" t="s">
+      <c r="B87" s="32"/>
+      <c r="C87" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="2:3">
-      <c r="B88" s="24"/>
-      <c r="C88" s="22" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="2:3">
-      <c r="B89" s="24"/>
-      <c r="C89" s="22" t="s">
+      <c r="B89" s="32"/>
+      <c r="C89" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="2:3">
-      <c r="B90" s="24"/>
-      <c r="C90" s="22" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="2:3">
-      <c r="B91" s="24"/>
-      <c r="C91" s="22" t="s">
+      <c r="B91" s="32"/>
+      <c r="C91" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="2:3">
-      <c r="B92" s="24"/>
-      <c r="C92" s="22" t="s">
+      <c r="B92" s="32"/>
+      <c r="C92" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="2:3">
-      <c r="B93" s="24"/>
-      <c r="C93" s="22" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="2:3">
-      <c r="B94" s="24"/>
-      <c r="C94" s="22" t="s">
+      <c r="B94" s="32"/>
+      <c r="C94" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="2:3">
-      <c r="B95" s="24"/>
-      <c r="C95" s="22" t="s">
+      <c r="B95" s="32"/>
+      <c r="C95" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" ht="16.5" spans="2:3">
-      <c r="B96" s="24"/>
-      <c r="C96" s="22" t="s">
+      <c r="B96" s="32"/>
+      <c r="C96" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="97" ht="16.5" spans="2:3">
-      <c r="B97" s="24"/>
-      <c r="C97" s="22" t="s">
+      <c r="B97" s="32"/>
+      <c r="C97" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" ht="16.5" spans="2:3">
-      <c r="B98" s="24"/>
-      <c r="C98" s="22" t="s">
+      <c r="B98" s="32"/>
+      <c r="C98" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" ht="16.5" spans="2:3">
-      <c r="B99" s="24"/>
-      <c r="C99" s="22" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" ht="16.5" spans="2:3">
-      <c r="B100" s="24"/>
-      <c r="C100" s="22" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="101" ht="16.5" spans="2:3">
-      <c r="B101" s="24"/>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" ht="16.5" spans="2:3">
-      <c r="B102" s="24"/>
-      <c r="C102" s="22" t="s">
+      <c r="B102" s="32"/>
+      <c r="C102" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" ht="16.5" spans="2:3">
-      <c r="B103" s="24"/>
-      <c r="C103" s="22" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" ht="16.5" spans="2:3">
-      <c r="B104" s="24" t="s">
+      <c r="B104" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" ht="16.5" spans="2:3">
-      <c r="B105" s="24"/>
-      <c r="C105" s="22" t="s">
+      <c r="B105" s="32"/>
+      <c r="C105" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" ht="16.5" spans="2:3">
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" ht="16.5" spans="2:3">
-      <c r="B107" s="24"/>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="32"/>
+      <c r="C107" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="108" ht="16.5" spans="2:3">
-      <c r="B108" s="24"/>
-      <c r="C108" s="22" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="109" ht="16.5" spans="2:3">
-      <c r="B109" s="24"/>
-      <c r="C109" s="22" t="s">
+      <c r="B109" s="32"/>
+      <c r="C109" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" ht="16.5" spans="2:3">
-      <c r="B110" s="24"/>
-      <c r="C110" s="22" t="s">
+      <c r="B110" s="32"/>
+      <c r="C110" s="30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="111" ht="16.5" spans="2:3">
-      <c r="B111" s="24"/>
-      <c r="C111" s="22" t="s">
+      <c r="B111" s="32"/>
+      <c r="C111" s="30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="112" ht="16.5" spans="2:3">
-      <c r="B112" s="24"/>
-      <c r="C112" s="22" t="s">
+      <c r="B112" s="32"/>
+      <c r="C112" s="30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3298,1216 +3657,1216 @@
   <sheetPr/>
   <dimension ref="B1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+    <sheetView topLeftCell="B94" workbookViewId="0">
       <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6666666666667" style="15" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="4.66666666666667" style="15" customWidth="1"/>
-    <col min="7" max="7" width="58.5833333333333" style="15" customWidth="1"/>
-    <col min="8" max="12" width="9" style="15"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="14" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="23" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="23" customWidth="1"/>
+    <col min="6" max="6" width="4.66666666666667" style="23" customWidth="1"/>
+    <col min="7" max="7" width="58.5833333333333" style="23" customWidth="1"/>
+    <col min="8" max="12" width="9" style="23"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>1988</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>1993</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>1999</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <v>2004</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>2018</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="2" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="2" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="2"/>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="2"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="2" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="18"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="2" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2" t="s">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="2" t="s">
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="2" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="2" t="s">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="2" t="s">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="2" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="2" t="s">
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="20"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="2" t="s">
+      <c r="B81" s="28"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="8" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="2" t="s">
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="2" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="2" t="s">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="2" t="s">
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="2" t="s">
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="2" t="s">
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="2" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2" t="s">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8" t="s">
+      <c r="D91" s="16"/>
+      <c r="E91" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19" t="s">
+      <c r="B92" s="27"/>
+      <c r="C92" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="2" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="2" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="2" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="2" t="s">
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2" t="s">
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="2" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8" t="s">
+      <c r="D98" s="16"/>
+      <c r="E98" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19" t="s">
+      <c r="B99" s="27"/>
+      <c r="C99" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="2" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="2" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2" t="s">
+      <c r="F101" s="10"/>
+      <c r="G101" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="2" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="2" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2" t="s">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="2" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="2" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="23">
         <v>1999</v>
       </c>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="23">
         <v>2019</v>
       </c>
     </row>
@@ -4558,7 +4917,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
@@ -4576,464 +4935,464 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="16384" width="8.66666666666667" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -5087,4 +5446,1207 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:O94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G15" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>377</v>
+      </c>
+      <c r="K21" t="s">
+        <v>378</v>
+      </c>
+      <c r="O21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J22" t="s">
+        <v>381</v>
+      </c>
+      <c r="K22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J24" t="s">
+        <v>375</v>
+      </c>
+      <c r="K24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25"/>
+      <c r="J25" t="s">
+        <v>377</v>
+      </c>
+      <c r="K25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J26" t="s">
+        <v>381</v>
+      </c>
+      <c r="K26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29"/>
+      <c r="J29" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="D63" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="D71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" t="s">
+        <v>437</v>
+      </c>
+      <c r="D72" t="s">
+        <v>438</v>
+      </c>
+      <c r="H72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="D73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>444</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="5"/>
+      <c r="D89" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" s="5"/>
+      <c r="D90" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C14:C61"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="D32:D45"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="D51:D61"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="G20:H23"/>
+    <mergeCell ref="G24:H27"/>
+    <mergeCell ref="G28:H31"/>
+    <mergeCell ref="D19:E31"/>
+    <mergeCell ref="A2:B12"/>
+    <mergeCell ref="A14:B73"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>